--- a/starter-analysis-exercise/data/raw-data/exampledata_2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5589DE-34C3-43D3-9A48-3EA9EFDA1C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CF92A5-228F-4957-9AD2-4DDFBFB4A459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Height</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Age in years</t>
+  </si>
+  <si>
+    <t>Shirt size (Xtra small - Xtra large)</t>
+  </si>
+  <si>
+    <t>XS/S/M/L/XL</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -684,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +750,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
